--- a/Kunjungan Pasien Balita Puskesmas cianjur -Training.xlsx
+++ b/Kunjungan Pasien Balita Puskesmas cianjur -Training.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web-App\gizi-source\Pupah-Kelebihan-Gizi\Website-fix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Clone This PC\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EDF02F-C06D-4545-BEE1-DD454FAD9FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D857FB9-8CA2-46F0-8332-3788822B44F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="249">
   <si>
     <t>No.</t>
   </si>
@@ -72,6 +72,9 @@
     <t>Berat Badan</t>
   </si>
   <si>
+    <t>Singgih Falah</t>
+  </si>
+  <si>
     <t>Cianjur</t>
   </si>
   <si>
@@ -81,30 +84,120 @@
     <t>A</t>
   </si>
   <si>
+    <t>Thomas Wiguna</t>
+  </si>
+  <si>
     <t>Bandung</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>Mario Arifah</t>
+  </si>
+  <si>
     <t>Sumedang</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
+    <t>Dhanu Triashafira</t>
+  </si>
+  <si>
+    <t>Bob Fathir</t>
+  </si>
+  <si>
+    <t>Anas Aristy</t>
+  </si>
+  <si>
+    <t>Andrie Farizi Husnah</t>
+  </si>
+  <si>
+    <t>Rio Naenggolan</t>
+  </si>
+  <si>
+    <t>Hudzaifah Ihsanuddin</t>
+  </si>
+  <si>
+    <t>Zulfi Willyanda</t>
+  </si>
+  <si>
+    <t>Bimo Givan Oktavianty</t>
+  </si>
+  <si>
     <t>AB</t>
   </si>
   <si>
+    <t>Mustafid Paramadina</t>
+  </si>
+  <si>
+    <t>Hilman Ariani</t>
+  </si>
+  <si>
+    <t>Bony Jordan</t>
+  </si>
+  <si>
+    <t>Aldi Syaibatul Suandhini</t>
+  </si>
+  <si>
+    <t>Hizkia Fadhillah</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
+    <t>Ressy Rachma</t>
+  </si>
+  <si>
+    <t>Banni Febrianto</t>
+  </si>
+  <si>
+    <t>Wildan Giarini</t>
+  </si>
+  <si>
     <t>Lebak</t>
   </si>
   <si>
+    <t>Alrendy Listisni</t>
+  </si>
+  <si>
+    <t>Aburachman Hosea</t>
+  </si>
+  <si>
+    <t>Edwin Reksa Priyanto</t>
+  </si>
+  <si>
+    <t>Revi Hilman Septiani</t>
+  </si>
+  <si>
+    <t>Tubagus Yutama Diva</t>
+  </si>
+  <si>
+    <t>Aceh</t>
+  </si>
+  <si>
+    <t>Geraldi Praditia Sinuka</t>
+  </si>
+  <si>
+    <t>Doni Anwar</t>
+  </si>
+  <si>
+    <t>Lampung</t>
+  </si>
+  <si>
+    <t>Adisdi Irlan Siahainenia</t>
+  </si>
+  <si>
     <t>Manado</t>
   </si>
   <si>
+    <t>Aulia Tio</t>
+  </si>
+  <si>
+    <t>Gilang Wirawan</t>
+  </si>
+  <si>
     <t>Firas Widyawati</t>
   </si>
   <si>
@@ -351,6 +444,93 @@
     <t>Banni Sapitri</t>
   </si>
   <si>
+    <t>320301717325023</t>
+  </si>
+  <si>
+    <t>320301654067027</t>
+  </si>
+  <si>
+    <t>320301131158031</t>
+  </si>
+  <si>
+    <t>320301249856029</t>
+  </si>
+  <si>
+    <t>320301288720041</t>
+  </si>
+  <si>
+    <t>320301187950042</t>
+  </si>
+  <si>
+    <t>320301477562010</t>
+  </si>
+  <si>
+    <t>320301774280025</t>
+  </si>
+  <si>
+    <t>320301500498044</t>
+  </si>
+  <si>
+    <t>320301423627048</t>
+  </si>
+  <si>
+    <t>320301170511012</t>
+  </si>
+  <si>
+    <t>320301202317035</t>
+  </si>
+  <si>
+    <t>320301178685038</t>
+  </si>
+  <si>
+    <t>320301416135025</t>
+  </si>
+  <si>
+    <t>320301327628015</t>
+  </si>
+  <si>
+    <t>320301585953029</t>
+  </si>
+  <si>
+    <t>320301280329017</t>
+  </si>
+  <si>
+    <t>320301531579051</t>
+  </si>
+  <si>
+    <t>320301627580059</t>
+  </si>
+  <si>
+    <t>320301440966060</t>
+  </si>
+  <si>
+    <t>320301332488012</t>
+  </si>
+  <si>
+    <t>320301221933056</t>
+  </si>
+  <si>
+    <t>320301694773013</t>
+  </si>
+  <si>
+    <t>320301402415060</t>
+  </si>
+  <si>
+    <t>320301472995037</t>
+  </si>
+  <si>
+    <t>320301495865040</t>
+  </si>
+  <si>
+    <t>320301654884044</t>
+  </si>
+  <si>
+    <t>320301563913036</t>
+  </si>
+  <si>
+    <t>320301127531052</t>
+  </si>
+  <si>
     <t>320301278564051</t>
   </si>
   <si>
@@ -592,187 +772,13 @@
   </si>
   <si>
     <t>320301700007030</t>
-  </si>
-  <si>
-    <t>Rutwan Ihatrayudha</t>
-  </si>
-  <si>
-    <t>320301593468015</t>
-  </si>
-  <si>
-    <t>Cakra Sakinah</t>
-  </si>
-  <si>
-    <t>320301454632039</t>
-  </si>
-  <si>
-    <t>Sutrisno Pringganti</t>
-  </si>
-  <si>
-    <t>320301116675047</t>
-  </si>
-  <si>
-    <t>Aldi Nurdiansyah</t>
-  </si>
-  <si>
-    <t>320301691497052</t>
-  </si>
-  <si>
-    <t>Pratama Hakim</t>
-  </si>
-  <si>
-    <t>320301218671060</t>
-  </si>
-  <si>
-    <t>Jhon Devi</t>
-  </si>
-  <si>
-    <t>320301462478025</t>
-  </si>
-  <si>
-    <t>Dee Satrio</t>
-  </si>
-  <si>
-    <t>320301437567024</t>
-  </si>
-  <si>
-    <t>Adityo Carolina</t>
-  </si>
-  <si>
-    <t>320301199487035</t>
-  </si>
-  <si>
-    <t>Yosafat Febriani</t>
-  </si>
-  <si>
-    <t>320301652359057</t>
-  </si>
-  <si>
-    <t>Geraldi Sumlang</t>
-  </si>
-  <si>
-    <t>320301448007010</t>
-  </si>
-  <si>
-    <t>Arfan Jhon Wijaya</t>
-  </si>
-  <si>
-    <t>320301755595050</t>
-  </si>
-  <si>
-    <t>Ryan Setyawati</t>
-  </si>
-  <si>
-    <t>320301135583017</t>
-  </si>
-  <si>
-    <t>Ariyadi Shabrina</t>
-  </si>
-  <si>
-    <t>320301268541038</t>
-  </si>
-  <si>
-    <t>Mario Keviati</t>
-  </si>
-  <si>
-    <t>320301774583045</t>
-  </si>
-  <si>
-    <t>Rio Qodir</t>
-  </si>
-  <si>
-    <t>320301659721048</t>
-  </si>
-  <si>
-    <t>Naufal Juliyanti</t>
-  </si>
-  <si>
-    <t>320301489919026</t>
-  </si>
-  <si>
-    <t>Rezky Rais</t>
-  </si>
-  <si>
-    <t>320301366057046</t>
-  </si>
-  <si>
-    <t>Ario Azrul Hardianti</t>
-  </si>
-  <si>
-    <t>320301572434042</t>
-  </si>
-  <si>
-    <t>Rinaldy Amami</t>
-  </si>
-  <si>
-    <t>320301736399022</t>
-  </si>
-  <si>
-    <t>Pandu Maharani</t>
-  </si>
-  <si>
-    <t>320301383620028</t>
-  </si>
-  <si>
-    <t>Azrul Wagey</t>
-  </si>
-  <si>
-    <t>320301394315060</t>
-  </si>
-  <si>
-    <t>Bob Falah</t>
-  </si>
-  <si>
-    <t>320301441119018</t>
-  </si>
-  <si>
-    <t>Ferdiansyah Rahmawati</t>
-  </si>
-  <si>
-    <t>320301673276019</t>
-  </si>
-  <si>
-    <t>Syarief Tanuwijaya</t>
-  </si>
-  <si>
-    <t>320301295130058</t>
-  </si>
-  <si>
-    <t>Gilang Ertasari</t>
-  </si>
-  <si>
-    <t>320301513689050</t>
-  </si>
-  <si>
-    <t>Aprian Haddad</t>
-  </si>
-  <si>
-    <t>320301209811027</t>
-  </si>
-  <si>
-    <t>Praditia Farizi</t>
-  </si>
-  <si>
-    <t>320301707005013</t>
-  </si>
-  <si>
-    <t>Chandra Geryance</t>
-  </si>
-  <si>
-    <t>320301284131052</t>
-  </si>
-  <si>
-    <t>Ogie Noverlia</t>
-  </si>
-  <si>
-    <t>320301687960019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,12 +912,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1101,7 +1101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1122,6 +1122,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1235,22 +1246,22 @@
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1284,9 +1295,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1610,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O30"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,1076 +1684,1075 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="3">
-        <v>43404</v>
+        <v>43177</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="3">
-        <v>44274</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+        <v>44277</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="6">
-        <v>120</v>
-      </c>
-      <c r="O2" s="6">
-        <v>22</v>
+        <v>65</v>
+      </c>
+      <c r="O2" s="7">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E3" s="3">
-        <v>43558</v>
+        <v>42869</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="3">
-        <v>44365</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+        <v>44539</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="6">
-        <v>124</v>
-      </c>
-      <c r="O3" s="6">
+        <v>65</v>
+      </c>
+      <c r="O3" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43465</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3">
+        <v>44262</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="6">
+        <v>66</v>
+      </c>
+      <c r="O4" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43626</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3">
+        <v>44223</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="6">
+        <v>66</v>
+      </c>
+      <c r="O5" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3">
+        <v>41782</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3">
+        <v>44417</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="6">
+        <v>67</v>
+      </c>
+      <c r="O6" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3">
+        <v>42375</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3">
+        <v>44437</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="6">
+        <v>67</v>
+      </c>
+      <c r="O7" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3">
+        <v>42507</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3">
+        <v>44442</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="6">
+        <v>68</v>
+      </c>
+      <c r="O8" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43728</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3">
+        <v>44416</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="6">
+        <v>68</v>
+      </c>
+      <c r="O9" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3">
+        <v>42303</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3">
+        <v>44220</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="6">
+        <v>69</v>
+      </c>
+      <c r="O10" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3">
+        <v>43359</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3">
+        <v>44552</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="6">
+        <v>69</v>
+      </c>
+      <c r="O11" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3">
+        <v>41808</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3">
+        <v>44233</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="6">
+        <v>70</v>
+      </c>
+      <c r="O12" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3">
+        <v>43725</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3">
-        <v>42973</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="3">
-        <v>44334</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6">
-        <v>124</v>
-      </c>
-      <c r="O4" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3">
+        <v>44295</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="6">
+        <v>70</v>
+      </c>
+      <c r="O13" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3">
+        <v>41791</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3">
+        <v>44363</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="6">
+        <v>71</v>
+      </c>
+      <c r="O14" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3">
+        <v>43616</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3">
+        <v>44496</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="6">
+        <v>71</v>
+      </c>
+      <c r="O15" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="E5" s="3">
-        <v>43694</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3">
+        <v>42615</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3">
+        <v>44295</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="6">
+        <v>72</v>
+      </c>
+      <c r="O16" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3">
+        <v>41282</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3">
+        <v>44421</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="6">
+        <v>72</v>
+      </c>
+      <c r="O17" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3">
+        <v>42995</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3">
+        <v>44477</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="6">
+        <v>73</v>
+      </c>
+      <c r="O18" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3">
+        <v>41378</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="3">
+        <v>44213</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="6">
+        <v>73</v>
+      </c>
+      <c r="O19" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3">
+        <v>43392</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="3">
+        <v>44400</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="6">
+        <v>74</v>
+      </c>
+      <c r="O20" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3">
+        <v>42394</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="3">
+        <v>44411</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="6">
+        <v>74</v>
+      </c>
+      <c r="O21" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3">
+        <v>42757</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="3">
+        <v>44480</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="6">
+        <v>75</v>
+      </c>
+      <c r="O22" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="3">
-        <v>44226</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6">
-        <v>129</v>
-      </c>
-      <c r="O5" s="6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3">
-        <v>41434</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3">
+        <v>42452</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="3">
+        <v>44394</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="6">
+        <v>75</v>
+      </c>
+      <c r="O23" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="3">
-        <v>44486</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6">
-        <v>107</v>
-      </c>
-      <c r="O6" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3">
-        <v>43195</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="3">
-        <v>44497</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6">
-        <v>86</v>
-      </c>
-      <c r="O7" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3">
-        <v>41576</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="3">
-        <v>44288</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6">
-        <v>122</v>
-      </c>
-      <c r="O8" s="6">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3">
-        <v>42759</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="3">
-        <v>44310</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6">
-        <v>127</v>
-      </c>
-      <c r="O9" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="B24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3">
+        <v>42992</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="3">
+        <v>44210</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="6">
+        <v>76</v>
+      </c>
+      <c r="O24" s="7">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3">
-        <v>42907</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="3">
-        <v>44440</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6">
-        <v>84</v>
-      </c>
-      <c r="O10" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="3">
+        <v>43670</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="3">
+        <v>44198</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="6">
+        <v>76</v>
+      </c>
+      <c r="O25" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3">
+        <v>41387</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="3">
+        <v>44203</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="6">
+        <v>77</v>
+      </c>
+      <c r="O26" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="3">
+        <v>43539</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="3">
+        <v>44389</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="6">
+        <v>77</v>
+      </c>
+      <c r="O27" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="3">
+        <v>42785</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="3">
+        <v>44304</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="6">
+        <v>78</v>
+      </c>
+      <c r="O28" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3">
+        <v>42487</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="3">
+        <v>44446</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="6">
+        <v>78</v>
+      </c>
+      <c r="O29" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3">
+        <v>42934</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="3">
+        <v>44234</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="6">
+        <v>79</v>
+      </c>
+      <c r="O30" s="7">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3">
-        <v>41643</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="3">
-        <v>44529</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6">
-        <v>108</v>
-      </c>
-      <c r="O11" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3">
-        <v>41298</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="3">
-        <v>44467</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6">
-        <v>104</v>
-      </c>
-      <c r="O12" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3">
-        <v>42275</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="3">
-        <v>44332</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6">
-        <v>80</v>
-      </c>
-      <c r="O13" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3">
-        <v>42364</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="3">
-        <v>44379</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6">
-        <v>122</v>
-      </c>
-      <c r="O14" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3">
-        <v>43623</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="3">
-        <v>44419</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6">
-        <v>112</v>
-      </c>
-      <c r="O15" s="6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3">
-        <v>42664</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="3">
-        <v>44461</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6">
-        <v>130</v>
-      </c>
-      <c r="O16" s="6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="3">
-        <v>41659</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="3">
-        <v>44429</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6">
-        <v>87</v>
-      </c>
-      <c r="O17" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="3">
-        <v>42085</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="3">
-        <v>44436</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6">
-        <v>102</v>
-      </c>
-      <c r="O18" s="6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="3">
-        <v>42500</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="3">
-        <v>44535</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6">
-        <v>89</v>
-      </c>
-      <c r="O19" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3">
-        <v>43491</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="3">
-        <v>44352</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6">
-        <v>95</v>
-      </c>
-      <c r="O20" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="3">
-        <v>41818</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="3">
-        <v>44307</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6">
-        <v>103</v>
-      </c>
-      <c r="O21" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="3">
-        <v>42206</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="3">
-        <v>44404</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6">
-        <v>102</v>
-      </c>
-      <c r="O22" s="6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="3">
-        <v>43549</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="3">
-        <v>44252</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6">
-        <v>126</v>
-      </c>
-      <c r="O23" s="6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3">
-        <v>43491</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="3">
-        <v>44505</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6">
-        <v>83</v>
-      </c>
-      <c r="O24" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3">
-        <v>42751</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="3">
-        <v>44346</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6">
-        <v>114</v>
-      </c>
-      <c r="O25" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="3">
-        <v>41373</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="3">
-        <v>44303</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6">
-        <v>106</v>
-      </c>
-      <c r="O26" s="6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>196</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="3">
-        <v>41885</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="3">
-        <v>44308</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6">
-        <v>113</v>
-      </c>
-      <c r="O27" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="3">
-        <v>43656</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="3">
-        <v>44207</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6">
-        <v>104</v>
-      </c>
-      <c r="O28" s="6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="3">
-        <v>42529</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="3">
-        <v>44493</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6">
-        <v>93</v>
-      </c>
-      <c r="O29" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="3">
-        <v>42438</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="3">
-        <v>44373</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6">
-        <v>126</v>
-      </c>
-      <c r="O30" s="6">
-        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2750,22 +2760,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>20</v>
+        <v>57</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E31" s="3">
         <v>42668</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2775,10 +2785,10 @@
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="5">
+      <c r="N31" s="6">
         <v>79</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="7">
         <v>10</v>
       </c>
     </row>
@@ -2787,22 +2797,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E32" s="3">
         <v>41375</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -2812,10 +2822,10 @@
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="5">
+      <c r="N32" s="6">
         <v>80</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="7">
         <v>10</v>
       </c>
     </row>
@@ -2824,22 +2834,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E33" s="3">
         <v>42261</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -2849,10 +2859,10 @@
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="5">
+      <c r="N33" s="6">
         <v>80</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="7">
         <v>10</v>
       </c>
     </row>
@@ -2861,22 +2871,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E34" s="3">
         <v>42473</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -2886,10 +2896,10 @@
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="5">
+      <c r="N34" s="6">
         <v>81</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="7">
         <v>10</v>
       </c>
     </row>
@@ -2898,22 +2908,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E35" s="3">
         <v>41516</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2923,10 +2933,10 @@
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="5">
+      <c r="N35" s="6">
         <v>81</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="7">
         <v>10</v>
       </c>
     </row>
@@ -2935,22 +2945,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E36" s="3">
         <v>42171</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2960,10 +2970,10 @@
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="5">
+      <c r="N36" s="6">
         <v>82</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="7">
         <v>10</v>
       </c>
     </row>
@@ -2972,22 +2982,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E37" s="3">
         <v>43159</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -2997,10 +3007,10 @@
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="5">
+      <c r="N37" s="6">
         <v>82</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="7">
         <v>10</v>
       </c>
     </row>
@@ -3009,22 +3019,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>15</v>
+        <v>64</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E38" s="3">
         <v>42810</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3034,10 +3044,10 @@
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="5">
+      <c r="N38" s="6">
         <v>83</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="7">
         <v>10</v>
       </c>
     </row>
@@ -3046,22 +3056,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>15</v>
+        <v>65</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E39" s="3">
         <v>42486</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3071,10 +3081,10 @@
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="5">
+      <c r="N39" s="6">
         <v>83</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3083,22 +3093,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>15</v>
+        <v>66</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E40" s="3">
         <v>43017</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -3108,10 +3118,10 @@
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="5">
+      <c r="N40" s="6">
         <v>84</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3120,22 +3130,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E41" s="3">
         <v>41981</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -3145,10 +3155,10 @@
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="5">
+      <c r="N41" s="6">
         <v>84</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3157,22 +3167,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E42" s="3">
         <v>41560</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -3182,10 +3192,10 @@
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-      <c r="N42" s="5">
+      <c r="N42" s="6">
         <v>85</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3194,22 +3204,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E43" s="3">
         <v>43505</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -3219,10 +3229,10 @@
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="5">
+      <c r="N43" s="6">
         <v>85</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3231,22 +3241,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E44" s="3">
         <v>41480</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -3256,10 +3266,10 @@
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-      <c r="N44" s="5">
+      <c r="N44" s="6">
         <v>86</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3268,22 +3278,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>15</v>
+        <v>71</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E45" s="3">
         <v>41512</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -3293,10 +3303,10 @@
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
-      <c r="N45" s="5">
+      <c r="N45" s="6">
         <v>86</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3305,22 +3315,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>15</v>
+        <v>72</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E46" s="3">
         <v>42745</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -3330,10 +3340,10 @@
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-      <c r="N46" s="5">
+      <c r="N46" s="6">
         <v>87</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3342,22 +3352,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>24</v>
+        <v>73</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="E47" s="3">
         <v>42393</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -3367,10 +3377,10 @@
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="5">
+      <c r="N47" s="6">
         <v>87</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O47" s="7">
         <v>12</v>
       </c>
     </row>
@@ -3379,22 +3389,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>15</v>
+        <v>74</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E48" s="3">
         <v>42963</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -3404,10 +3414,10 @@
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="5">
+      <c r="N48" s="6">
         <v>88</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48" s="7">
         <v>12</v>
       </c>
     </row>
@@ -3416,22 +3426,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>15</v>
+        <v>75</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E49" s="3">
         <v>42822</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -3441,10 +3451,10 @@
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-      <c r="N49" s="5">
+      <c r="N49" s="6">
         <v>88</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O49" s="7">
         <v>12</v>
       </c>
     </row>
@@ -3453,22 +3463,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E50" s="3">
         <v>42644</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -3478,10 +3488,10 @@
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-      <c r="N50" s="5">
+      <c r="N50" s="6">
         <v>89</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O50" s="7">
         <v>12</v>
       </c>
     </row>
@@ -3490,22 +3500,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E51" s="3">
         <v>43600</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -3515,10 +3525,10 @@
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
-      <c r="N51" s="5">
+      <c r="N51" s="6">
         <v>89</v>
       </c>
-      <c r="O51" s="6">
+      <c r="O51" s="7">
         <v>12</v>
       </c>
     </row>
@@ -3527,22 +3537,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E52" s="3">
         <v>42156</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -3552,10 +3562,10 @@
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-      <c r="N52" s="5">
+      <c r="N52" s="6">
         <v>90</v>
       </c>
-      <c r="O52" s="6">
+      <c r="O52" s="7">
         <v>12</v>
       </c>
     </row>
@@ -3564,22 +3574,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>18</v>
+        <v>79</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E53" s="3">
         <v>41375</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -3589,10 +3599,10 @@
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="N53" s="5">
+      <c r="N53" s="6">
         <v>90</v>
       </c>
-      <c r="O53" s="6">
+      <c r="O53" s="7">
         <v>12</v>
       </c>
     </row>
@@ -3601,22 +3611,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E54" s="3">
         <v>43304</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -3626,10 +3636,10 @@
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-      <c r="N54" s="5">
+      <c r="N54" s="6">
         <v>91</v>
       </c>
-      <c r="O54" s="6">
+      <c r="O54" s="7">
         <v>12</v>
       </c>
     </row>
@@ -3638,22 +3648,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E55" s="3">
         <v>43185</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -3663,10 +3673,10 @@
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-      <c r="N55" s="5">
+      <c r="N55" s="6">
         <v>91</v>
       </c>
-      <c r="O55" s="6">
+      <c r="O55" s="7">
         <v>13</v>
       </c>
     </row>
@@ -3675,22 +3685,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E56" s="3">
         <v>42661</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3700,10 +3710,10 @@
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="5">
+      <c r="N56" s="6">
         <v>92</v>
       </c>
-      <c r="O56" s="6">
+      <c r="O56" s="7">
         <v>13</v>
       </c>
     </row>
@@ -3712,22 +3722,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>15</v>
+        <v>83</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E57" s="3">
         <v>43375</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -3737,10 +3747,10 @@
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-      <c r="N57" s="5">
+      <c r="N57" s="6">
         <v>92</v>
       </c>
-      <c r="O57" s="6">
+      <c r="O57" s="7">
         <v>13</v>
       </c>
     </row>
@@ -3749,22 +3759,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>15</v>
+        <v>84</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E58" s="3">
         <v>41959</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -3774,10 +3784,10 @@
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-      <c r="N58" s="5">
+      <c r="N58" s="6">
         <v>93</v>
       </c>
-      <c r="O58" s="6">
+      <c r="O58" s="7">
         <v>13</v>
       </c>
     </row>
@@ -3786,22 +3796,22 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E59" s="3">
         <v>42785</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -3811,10 +3821,10 @@
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-      <c r="N59" s="5">
+      <c r="N59" s="6">
         <v>93</v>
       </c>
-      <c r="O59" s="6">
+      <c r="O59" s="7">
         <v>13</v>
       </c>
     </row>
@@ -3823,22 +3833,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>15</v>
+        <v>86</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E60" s="3">
         <v>41670</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -3848,10 +3858,10 @@
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-      <c r="N60" s="5">
+      <c r="N60" s="6">
         <v>94</v>
       </c>
-      <c r="O60" s="6">
+      <c r="O60" s="7">
         <v>13</v>
       </c>
     </row>
@@ -3860,22 +3870,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>15</v>
+        <v>87</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E61" s="3">
         <v>42905</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -3885,10 +3895,10 @@
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
-      <c r="N61" s="5">
+      <c r="N61" s="6">
         <v>94</v>
       </c>
-      <c r="O61" s="6">
+      <c r="O61" s="7">
         <v>13</v>
       </c>
     </row>
@@ -3897,22 +3907,22 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>15</v>
+        <v>88</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E62" s="3">
         <v>43276</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -3922,10 +3932,10 @@
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
-      <c r="N62" s="5">
+      <c r="N62" s="6">
         <v>95</v>
       </c>
-      <c r="O62" s="6">
+      <c r="O62" s="7">
         <v>13</v>
       </c>
     </row>
@@ -3934,22 +3944,22 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E63" s="3">
         <v>42722</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -3959,10 +3969,10 @@
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
-      <c r="N63" s="5">
+      <c r="N63" s="6">
         <v>95</v>
       </c>
-      <c r="O63" s="6">
+      <c r="O63" s="7">
         <v>14</v>
       </c>
     </row>
@@ -3971,22 +3981,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>15</v>
+        <v>90</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E64" s="3">
         <v>41437</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -3996,10 +4006,10 @@
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
-      <c r="N64" s="5">
+      <c r="N64" s="6">
         <v>96</v>
       </c>
-      <c r="O64" s="6">
+      <c r="O64" s="7">
         <v>14</v>
       </c>
     </row>
@@ -4008,22 +4018,22 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>15</v>
+        <v>91</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E65" s="3">
         <v>41844</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -4033,10 +4043,10 @@
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="5">
+      <c r="N65" s="6">
         <v>96</v>
       </c>
-      <c r="O65" s="6">
+      <c r="O65" s="7">
         <v>14</v>
       </c>
     </row>
@@ -4045,22 +4055,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>15</v>
+        <v>92</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E66" s="3">
         <v>41584</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -4070,10 +4080,10 @@
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
-      <c r="N66" s="5">
+      <c r="N66" s="6">
         <v>97</v>
       </c>
-      <c r="O66" s="6">
+      <c r="O66" s="7">
         <v>14</v>
       </c>
     </row>
@@ -4082,22 +4092,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>15</v>
+        <v>93</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E67" s="3">
         <v>43147</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -4107,10 +4117,10 @@
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
-      <c r="N67" s="5">
+      <c r="N67" s="6">
         <v>97</v>
       </c>
-      <c r="O67" s="6">
+      <c r="O67" s="7">
         <v>14</v>
       </c>
     </row>
@@ -4119,22 +4129,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>15</v>
+        <v>94</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E68" s="3">
         <v>42699</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -4144,10 +4154,10 @@
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="5">
+      <c r="N68" s="6">
         <v>98</v>
       </c>
-      <c r="O68" s="6">
+      <c r="O68" s="7">
         <v>14</v>
       </c>
     </row>
@@ -4156,22 +4166,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>15</v>
+        <v>95</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E69" s="3">
         <v>41744</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -4181,10 +4191,10 @@
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
-      <c r="N69" s="5">
+      <c r="N69" s="6">
         <v>98</v>
       </c>
-      <c r="O69" s="6">
+      <c r="O69" s="7">
         <v>14</v>
       </c>
     </row>
@@ -4193,22 +4203,22 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>24</v>
+        <v>96</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="E70" s="3">
         <v>41743</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -4218,10 +4228,10 @@
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
-      <c r="N70" s="5">
+      <c r="N70" s="6">
         <v>99</v>
       </c>
-      <c r="O70" s="6">
+      <c r="O70" s="7">
         <v>14</v>
       </c>
     </row>
@@ -4230,22 +4240,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>15</v>
+        <v>97</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E71" s="3">
         <v>42958</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -4255,10 +4265,10 @@
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
-      <c r="N71" s="5">
+      <c r="N71" s="6">
         <v>99</v>
       </c>
-      <c r="O71" s="6">
+      <c r="O71" s="7">
         <v>15</v>
       </c>
     </row>
@@ -4267,22 +4277,22 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>15</v>
+        <v>98</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E72" s="3">
         <v>41546</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -4292,10 +4302,10 @@
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
-      <c r="N72" s="5">
+      <c r="N72" s="6">
         <v>100</v>
       </c>
-      <c r="O72" s="6">
+      <c r="O72" s="7">
         <v>15</v>
       </c>
     </row>
@@ -4304,22 +4314,22 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>15</v>
+        <v>99</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E73" s="3">
         <v>42205</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -4329,10 +4339,10 @@
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
-      <c r="N73" s="5">
+      <c r="N73" s="6">
         <v>100</v>
       </c>
-      <c r="O73" s="6">
+      <c r="O73" s="7">
         <v>15</v>
       </c>
     </row>
@@ -4341,22 +4351,22 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>15</v>
+        <v>100</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E74" s="3">
         <v>41392</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -4366,10 +4376,10 @@
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
-      <c r="N74" s="5">
+      <c r="N74" s="6">
         <v>101</v>
       </c>
-      <c r="O74" s="6">
+      <c r="O74" s="7">
         <v>15</v>
       </c>
     </row>
@@ -4378,22 +4388,22 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>15</v>
+        <v>101</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E75" s="3">
         <v>42174</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -4403,10 +4413,10 @@
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="5">
+      <c r="N75" s="6">
         <v>101</v>
       </c>
-      <c r="O75" s="6">
+      <c r="O75" s="7">
         <v>15</v>
       </c>
     </row>
@@ -4415,22 +4425,22 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>18</v>
+        <v>102</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E76" s="3">
         <v>41665</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -4440,10 +4450,10 @@
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-      <c r="N76" s="5">
+      <c r="N76" s="6">
         <v>102</v>
       </c>
-      <c r="O76" s="6">
+      <c r="O76" s="7">
         <v>15</v>
       </c>
     </row>
@@ -4452,22 +4462,22 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>20</v>
+        <v>103</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E77" s="3">
         <v>43660</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -4477,10 +4487,10 @@
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
-      <c r="N77" s="5">
+      <c r="N77" s="6">
         <v>102</v>
       </c>
-      <c r="O77" s="6">
+      <c r="O77" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4489,22 +4499,22 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>15</v>
+        <v>104</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E78" s="3">
         <v>43152</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -4514,10 +4524,10 @@
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
-      <c r="N78" s="5">
+      <c r="N78" s="6">
         <v>103</v>
       </c>
-      <c r="O78" s="6">
+      <c r="O78" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4526,22 +4536,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>15</v>
+        <v>105</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E79" s="3">
         <v>42704</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -4551,10 +4561,10 @@
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
-      <c r="N79" s="5">
+      <c r="N79" s="6">
         <v>103</v>
       </c>
-      <c r="O79" s="6">
+      <c r="O79" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4563,22 +4573,22 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>15</v>
+        <v>106</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E80" s="3">
         <v>42462</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -4588,10 +4598,10 @@
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
-      <c r="N80" s="5">
+      <c r="N80" s="6">
         <v>104</v>
       </c>
-      <c r="O80" s="6">
+      <c r="O80" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4600,22 +4610,22 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>15</v>
+        <v>107</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E81" s="3">
         <v>41681</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -4625,10 +4635,10 @@
       </c>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
-      <c r="N81" s="5">
+      <c r="N81" s="6">
         <v>104</v>
       </c>
-      <c r="O81" s="6">
+      <c r="O81" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4637,22 +4647,22 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>15</v>
+        <v>108</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E82" s="3">
         <v>41285</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -4662,10 +4672,10 @@
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
-      <c r="N82" s="5">
+      <c r="N82" s="6">
         <v>105</v>
       </c>
-      <c r="O82" s="6">
+      <c r="O82" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4674,22 +4684,22 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>15</v>
+        <v>109</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E83" s="3">
         <v>43777</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -4699,10 +4709,10 @@
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
-      <c r="N83" s="5">
+      <c r="N83" s="6">
         <v>105</v>
       </c>
-      <c r="O83" s="6">
+      <c r="O83" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4711,22 +4721,22 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>15</v>
+        <v>110</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E84" s="3">
         <v>41848</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -4736,10 +4746,10 @@
       </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
-      <c r="N84" s="5">
+      <c r="N84" s="6">
         <v>106</v>
       </c>
-      <c r="O84" s="6">
+      <c r="O84" s="7">
         <v>17</v>
       </c>
     </row>
@@ -4748,22 +4758,22 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E85" s="3">
         <v>42061</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -4773,10 +4783,10 @@
       </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
-      <c r="N85" s="5">
+      <c r="N85" s="6">
         <v>106</v>
       </c>
-      <c r="O85" s="6">
+      <c r="O85" s="7">
         <v>17</v>
       </c>
     </row>
@@ -4785,25 +4795,25 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>15</v>
+        <v>112</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E86" s="3">
         <v>42812</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -4812,10 +4822,10 @@
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
-      <c r="N86" s="5">
+      <c r="N86" s="6">
         <v>107</v>
       </c>
-      <c r="O86" s="6">
+      <c r="O86" s="7">
         <v>17</v>
       </c>
     </row>
@@ -4824,22 +4834,22 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>15</v>
+        <v>114</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E87" s="3">
         <v>42931</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -4849,10 +4859,10 @@
       </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
-      <c r="N87" s="5">
+      <c r="N87" s="6">
         <v>107</v>
       </c>
-      <c r="O87" s="6">
+      <c r="O87" s="7">
         <v>17</v>
       </c>
     </row>
@@ -4861,22 +4871,22 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>15</v>
+        <v>115</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E88" s="3">
         <v>43538</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -4886,10 +4896,10 @@
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
-      <c r="N88" s="5">
+      <c r="N88" s="6">
         <v>108</v>
       </c>
-      <c r="O88" s="6">
+      <c r="O88" s="7">
         <v>17</v>
       </c>
     </row>
@@ -4898,22 +4908,22 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>15</v>
+        <v>116</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E89" s="3">
         <v>43217</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -4923,10 +4933,10 @@
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
-      <c r="N89" s="5">
+      <c r="N89" s="6">
         <v>108</v>
       </c>
-      <c r="O89" s="6">
+      <c r="O89" s="7">
         <v>18</v>
       </c>
     </row>
@@ -4935,22 +4945,22 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>15</v>
+        <v>117</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E90" s="3">
         <v>42362</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -4960,10 +4970,10 @@
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
-      <c r="N90" s="5">
+      <c r="N90" s="6">
         <v>109</v>
       </c>
-      <c r="O90" s="6">
+      <c r="O90" s="7">
         <v>18</v>
       </c>
     </row>
@@ -4972,22 +4982,22 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>15</v>
+        <v>118</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E91" s="3">
         <v>42534</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -4997,10 +5007,10 @@
       </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
-      <c r="N91" s="5">
+      <c r="N91" s="6">
         <v>109</v>
       </c>
-      <c r="O91" s="6">
+      <c r="O91" s="7">
         <v>18</v>
       </c>
     </row>
@@ -5009,22 +5019,22 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>15</v>
+        <v>119</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E92" s="3">
         <v>43653</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -5034,10 +5044,10 @@
       </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
-      <c r="N92" s="5">
+      <c r="N92" s="6">
         <v>110</v>
       </c>
-      <c r="O92" s="6">
+      <c r="O92" s="7">
         <v>18</v>
       </c>
     </row>
@@ -5046,22 +5056,22 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>24</v>
+        <v>120</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="E93" s="3">
         <v>43150</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -5071,10 +5081,10 @@
       </c>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
-      <c r="N93" s="5">
+      <c r="N93" s="6">
         <v>110</v>
       </c>
-      <c r="O93" s="6">
+      <c r="O93" s="7">
         <v>18</v>
       </c>
     </row>
@@ -5083,22 +5093,22 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>15</v>
+        <v>121</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E94" s="3">
         <v>42444</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -5108,10 +5118,10 @@
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
-      <c r="N94" s="5">
+      <c r="N94" s="6">
         <v>111</v>
       </c>
-      <c r="O94" s="6">
+      <c r="O94" s="7">
         <v>19</v>
       </c>
     </row>
@@ -5120,22 +5130,22 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>15</v>
+        <v>122</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E95" s="3">
         <v>41956</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -5145,10 +5155,10 @@
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
-      <c r="N95" s="5">
+      <c r="N95" s="6">
         <v>111</v>
       </c>
-      <c r="O95" s="6">
+      <c r="O95" s="7">
         <v>19</v>
       </c>
     </row>
@@ -5157,22 +5167,22 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>15</v>
+        <v>123</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E96" s="3">
         <v>42210</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -5182,10 +5192,10 @@
       </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
-      <c r="N96" s="5">
+      <c r="N96" s="6">
         <v>112</v>
       </c>
-      <c r="O96" s="6">
+      <c r="O96" s="7">
         <v>19</v>
       </c>
     </row>
@@ -5194,22 +5204,22 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>15</v>
+        <v>124</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E97" s="3">
         <v>42625</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -5219,10 +5229,10 @@
       </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
-      <c r="N97" s="5">
+      <c r="N97" s="6">
         <v>112</v>
       </c>
-      <c r="O97" s="6">
+      <c r="O97" s="7">
         <v>19</v>
       </c>
     </row>
@@ -5231,22 +5241,22 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>15</v>
+        <v>125</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E98" s="3">
         <v>43081</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -5256,10 +5266,10 @@
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
-      <c r="N98" s="5">
+      <c r="N98" s="6">
         <v>113</v>
       </c>
-      <c r="O98" s="6">
+      <c r="O98" s="7">
         <v>19</v>
       </c>
     </row>
@@ -5268,22 +5278,22 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>15</v>
+        <v>126</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E99" s="3">
         <v>43110</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -5293,10 +5303,10 @@
       </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
-      <c r="N99" s="5">
+      <c r="N99" s="6">
         <v>113</v>
       </c>
-      <c r="O99" s="6">
+      <c r="O99" s="7">
         <v>20</v>
       </c>
     </row>
@@ -5305,22 +5315,22 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>24</v>
+        <v>127</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="E100" s="3">
         <v>42819</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -5330,10 +5340,10 @@
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
-      <c r="N100" s="5">
+      <c r="N100" s="6">
         <v>114</v>
       </c>
-      <c r="O100" s="6">
+      <c r="O100" s="7">
         <v>20</v>
       </c>
     </row>
@@ -5342,22 +5352,22 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>15</v>
+        <v>128</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E101" s="3">
         <v>43396</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -5367,10 +5377,10 @@
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
-      <c r="N101" s="5">
+      <c r="N101" s="6">
         <v>114</v>
       </c>
-      <c r="O101" s="6">
+      <c r="O101" s="7">
         <v>20</v>
       </c>
     </row>
@@ -5379,22 +5389,22 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>15</v>
+        <v>129</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E102" s="3">
         <v>42450</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -5404,10 +5414,10 @@
       </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
-      <c r="N102" s="5">
+      <c r="N102" s="6">
         <v>115</v>
       </c>
-      <c r="O102" s="6">
+      <c r="O102" s="7">
         <v>20</v>
       </c>
     </row>
@@ -5416,22 +5426,22 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>15</v>
+        <v>130</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E103" s="3">
         <v>41770</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -5441,10 +5451,10 @@
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
-      <c r="N103" s="5">
+      <c r="N103" s="6">
         <v>115</v>
       </c>
-      <c r="O103" s="6">
+      <c r="O103" s="7">
         <v>20</v>
       </c>
     </row>
@@ -5453,22 +5463,22 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>15</v>
+        <v>131</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E104" s="3">
         <v>42819</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -5478,10 +5488,10 @@
       </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
-      <c r="N104" s="5">
+      <c r="N104" s="6">
         <v>116</v>
       </c>
-      <c r="O104" s="6">
+      <c r="O104" s="7">
         <v>21</v>
       </c>
     </row>
@@ -5490,22 +5500,22 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>15</v>
+        <v>132</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E105" s="3">
         <v>41674</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -5515,10 +5525,10 @@
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
-      <c r="N105" s="5">
+      <c r="N105" s="6">
         <v>116</v>
       </c>
-      <c r="O105" s="6">
+      <c r="O105" s="7">
         <v>21</v>
       </c>
     </row>
@@ -5527,22 +5537,22 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>18</v>
+        <v>133</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E106" s="3">
         <v>43228</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -5552,10 +5562,10 @@
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
-      <c r="N106" s="5">
+      <c r="N106" s="6">
         <v>117</v>
       </c>
-      <c r="O106" s="6">
+      <c r="O106" s="7">
         <v>21</v>
       </c>
     </row>
@@ -5564,22 +5574,22 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>20</v>
+        <v>134</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E107" s="3">
         <v>41962</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -5589,10 +5599,10 @@
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
-      <c r="N107" s="5">
+      <c r="N107" s="6">
         <v>117</v>
       </c>
-      <c r="O107" s="6">
+      <c r="O107" s="7">
         <v>21</v>
       </c>
     </row>
@@ -5601,22 +5611,22 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E108" s="3">
         <v>41361</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -5626,10 +5636,10 @@
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
-      <c r="N108" s="5">
+      <c r="N108" s="6">
         <v>118</v>
       </c>
-      <c r="O108" s="6">
+      <c r="O108" s="7">
         <v>22</v>
       </c>
     </row>
@@ -5638,22 +5648,22 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E109" s="3">
         <v>42653</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -5663,10 +5673,10 @@
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
-      <c r="N109" s="5">
+      <c r="N109" s="6">
         <v>118</v>
       </c>
-      <c r="O109" s="6">
+      <c r="O109" s="7">
         <v>22</v>
       </c>
     </row>
@@ -5675,22 +5685,22 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E110" s="3">
         <v>43010</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -5700,10 +5710,10 @@
       </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
-      <c r="N110" s="5">
+      <c r="N110" s="6">
         <v>119</v>
       </c>
-      <c r="O110" s="6">
+      <c r="O110" s="7">
         <v>22</v>
       </c>
     </row>
@@ -5712,22 +5722,22 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E111" s="3">
         <v>42607</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -5737,10 +5747,10 @@
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
-      <c r="N111" s="5">
+      <c r="N111" s="6">
         <v>119</v>
       </c>
-      <c r="O111" s="6">
+      <c r="O111" s="7">
         <v>22</v>
       </c>
     </row>
